--- a/cookie_project.xlsx
+++ b/cookie_project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64bdeba47bfa1154/My Workspace/CookieProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{38632396-5548-466A-9845-662C6832EAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527A17A0-C3FE-4FB6-A44A-A5BD4EE3D2FE}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{38632396-5548-466A-9845-662C6832EAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DCD84A-3463-4389-A153-595FFAD212D7}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-1130" windowWidth="19420" windowHeight="10560" xr2:uid="{6762A2A9-ADDF-478D-A249-EFDBCBB567DA}"/>
+    <workbookView xWindow="876" yWindow="312" windowWidth="17280" windowHeight="9072" xr2:uid="{6762A2A9-ADDF-478D-A249-EFDBCBB567DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>Peekabo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am so happy that I am finally able to understand python much better </t>
   </si>
 </sst>
 </file>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B6641-9266-4090-85EA-70FDCC6C5FB2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,8 +520,74 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>14.4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34027ADD-5C3E-46D4-87FF-93EB8655F9C6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>19.8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>14.3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>17.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>14.4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cookie_project.xlsx
+++ b/cookie_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64bdeba47bfa1154/My Workspace/CookieProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{38632396-5548-466A-9845-662C6832EAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DCD84A-3463-4389-A153-595FFAD212D7}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{38632396-5548-466A-9845-662C6832EAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10670557-A6F0-4D0D-9EEF-0020D566DCFF}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="312" windowWidth="17280" windowHeight="9072" xr2:uid="{6762A2A9-ADDF-478D-A249-EFDBCBB567DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6762A2A9-ADDF-478D-A249-EFDBCBB567DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,102 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E209" authorId="0" shapeId="0" xr:uid="{8B87D136-0184-45A5-B8C4-D54A43AD842F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C379" authorId="0" shapeId="0" xr:uid="{27EBA923-EA0C-4879-A953-430052E11093}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D379" authorId="0" shapeId="0" xr:uid="{848F42B4-A7B0-4222-B3A7-D29A9CFC7838}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E379" authorId="0" shapeId="0" xr:uid="{05B72FAD-5B95-4CC7-BB21-E0776CBC2282}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A533" authorId="0" shapeId="0" xr:uid="{4B663B01-7434-4046-ADC1-2DAA5C463A5B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C533" authorId="0" shapeId="0" xr:uid="{2E8101A8-A8E5-4A3D-8623-79B1F36EF31B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E533" authorId="0" shapeId="0" xr:uid="{AC32D762-B7E6-4DE0-BAD7-C261E7F3BD91}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="263">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -55,38 +149,806 @@
     <t>Khalid Al-Walid</t>
   </si>
   <si>
-    <t>name_1234</t>
-  </si>
-  <si>
     <t>name_1235</t>
   </si>
   <si>
     <t>name_1236</t>
   </si>
   <si>
-    <t>My name is Muhammad Khalid Al-Walid and this is just a test for my python program cookie project</t>
-  </si>
-  <si>
     <t>I really hate you because you lied to me and I still cannot get over you</t>
   </si>
   <si>
     <t>Please be kind to other people because you don’t know what they have gone through</t>
   </si>
   <si>
-    <t>Natasha Alia</t>
-  </si>
-  <si>
     <t>Peekabo</t>
   </si>
   <si>
-    <t xml:space="preserve">I am so happy that I am finally able to understand python much better </t>
+    <t>Apip</t>
+  </si>
+  <si>
+    <t>Ku Hasinah</t>
+  </si>
+  <si>
+    <t>Amir Ashraf</t>
+  </si>
+  <si>
+    <t>Nurarif Nurhashim</t>
+  </si>
+  <si>
+    <t>Aidil Nashazleen</t>
+  </si>
+  <si>
+    <t>Cupi</t>
+  </si>
+  <si>
+    <t>Ida Melati</t>
+  </si>
+  <si>
+    <t>Iylia Jasni</t>
+  </si>
+  <si>
+    <t>Adam Ipan</t>
+  </si>
+  <si>
+    <t>hey irfan, i dont know how to say this but i kinda have a crush on you. i dont know if u know me but ive always given u hints i think haha. see u around and enjoy da cookie</t>
+  </si>
+  <si>
+    <t>Adam Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study smart and do good to others like you always do ! Hidup Ipang!!!! </t>
+  </si>
+  <si>
+    <t>Adam Nigel</t>
+  </si>
+  <si>
+    <t>you still dont deserve me as a friend if u dont get me one ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for being such a good honest friend to me. You're the one person I know I can trust. I'm sorry for my shortcomings and for being a downright asshole sometimes, to you and others. I genuinely hope this friendship lasts no matter what. </t>
+  </si>
+  <si>
+    <t>Te quiero mucho &lt;3</t>
+  </si>
+  <si>
+    <t>Adam Zambri (chong)</t>
+  </si>
+  <si>
+    <t>I love you boiz, gang gang till the end wuv cups</t>
+  </si>
+  <si>
+    <t>Adam Zu</t>
+  </si>
+  <si>
+    <t>Helloo DamZu! HAHA Good luck on your 10 crushes :p hopefully one of them comes thru and you leave the single and depressi gang gang ✊🏻 #tiktokators</t>
+  </si>
+  <si>
+    <t>Adam Zuraini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helloOo thx for being a goood friend and listener :) and ermm singles&gt;doubles kk bye ttyl </t>
+  </si>
+  <si>
+    <t>Raziq</t>
+  </si>
+  <si>
+    <t>Damzu!!! u cool and chill but you’ll be cooler and chiller with this cookie. Buat more tiktoks pls</t>
+  </si>
+  <si>
+    <t>Chong</t>
+  </si>
+  <si>
+    <t>AdamZu</t>
+  </si>
+  <si>
+    <t>I may not show it often but love you do Dam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqilah Dayana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adek </t>
+  </si>
+  <si>
+    <t>Hi adeks hiks this is your concert buds!!! Thank you for our times during kasukma and tbh i had so much fun on that weekend &lt;3 Love you adek, i cherish our friendship 4ever!</t>
+  </si>
+  <si>
+    <t>Diyana</t>
+  </si>
+  <si>
+    <t>Adek !!!!!</t>
+  </si>
+  <si>
+    <t>obviously not the dumbest among cliquez love u adek ;p to many more days weeks months of sitting next to each other in class (without us actually realising bcs opposite attracts 🤪🤘🏻)</t>
+  </si>
+  <si>
+    <t>mishajeprs</t>
+  </si>
+  <si>
+    <t>adekkk</t>
+  </si>
+  <si>
+    <t>Adek!!! Stay strong and never underestimate yourself! I’m sure you’ll figure it out w.... AMARE please dont stop making iced coffee for me HEHEHE bcs YOU’RE MY FAV BARUSTA LOVE YOU LOTS  XOXO</t>
+  </si>
+  <si>
+    <t>AIDA HAZIRAH</t>
+  </si>
+  <si>
+    <t>Adibah</t>
+  </si>
+  <si>
+    <t>Know that you're a rainbow in someone's cloud :) anyways enjoy the cookie &lt;3</t>
+  </si>
+  <si>
+    <t>Hani</t>
+  </si>
+  <si>
+    <t>Hey ummi!! Thanks for all the love you pour to all of ur daughters and sons. Ly</t>
+  </si>
+  <si>
+    <t>Hanis Khairina</t>
+  </si>
+  <si>
+    <t>Nah, sbb kau bagi aku kan tahun lepas huhu</t>
+  </si>
+  <si>
+    <t>Qis</t>
+  </si>
+  <si>
+    <t>Adlan</t>
+  </si>
+  <si>
+    <t>Hello RIP mate! Thankful to have you as one, Good luck for your future buddy! &lt;3</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Mengada nak drop hints. Thank you RIP mate! so grateful to have you as one. Good luck for your future buddy!</t>
+  </si>
+  <si>
+    <t>Meor Adlan Putra Meor Hisham</t>
+  </si>
+  <si>
+    <t>Adli Irfan</t>
+  </si>
+  <si>
+    <t>Hello Adliii! We’ve been through a lot together do like A LOT. Good or bad, aku akan cherish all the moments with you sampai bila bila and will never forget you bro. I reaaaally appreciate your presence in my life and thank you for everything adlyyy. Hope you like the cookie!</t>
+  </si>
+  <si>
+    <t>Alia Yasmeen</t>
+  </si>
+  <si>
+    <t>Adlinanananana</t>
+  </si>
+  <si>
+    <t>love you baby ♥</t>
+  </si>
+  <si>
+    <t>dina cute!!</t>
+  </si>
+  <si>
+    <t>adlinananananana</t>
+  </si>
+  <si>
+    <t>19.wan nuradlina</t>
+  </si>
+  <si>
+    <t>hey adlina!!!! I hope you are feeling great today &lt;3 tbh you are one of the strongest &amp; happy-go-lucky  person I met in my life, keep it going girl!! I hope Allah will protect you wherever you go. Take care ad :)))</t>
+  </si>
+  <si>
+    <t>imanzle</t>
+  </si>
+  <si>
+    <t>Adri Shu</t>
+  </si>
+  <si>
+    <t>thank you for having my back since day one. I love you sissy &lt;3</t>
+  </si>
+  <si>
+    <t>Adriana Shamisa</t>
+  </si>
+  <si>
+    <t>I cant believe you persuaded me into doing this. Anyways, stay in school. Dont do drugs. Always take consent. Play safe, use protection. Stand up for women. Jangan rempit</t>
+  </si>
+  <si>
+    <t>Your beloved usrah sisturss</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Assalamulaikum  hiii! 👋🏻 wishing you all the best throughout your studiesss and may Allah ease ❤ enjoy your journey here in kms, let's be happy together 😄</t>
+  </si>
+  <si>
+    <t>Farihah</t>
+  </si>
+  <si>
+    <t>UTM2. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana shamisa </t>
+  </si>
+  <si>
+    <t>UTM2.1</t>
+  </si>
+  <si>
+    <t>Takyah nak teka2 sngt, ni farihah😂.X byk mau ckp, just thank you for being my friend. Kawan yg baik, boleh dprcayai. Sumpah baek. Smpai bila2 akuakn igt ayt kau "sekarang aku la jadi kwn kau" first day msa aku msuk kms. Aku x tau sejauh mna this friendship will go tpi apa2 punjaga diri d luar sna❤️</t>
+  </si>
+  <si>
+    <t>Adriana Shu</t>
+  </si>
+  <si>
+    <t>A good heart and pretty girl deserve a cookie. Goodluck sem 3 girl ❤️ Love you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hareihtasin </t>
+  </si>
+  <si>
+    <t>Adriana Shuhuda</t>
+  </si>
+  <si>
+    <t>This cookie is from me not him. Enjoy</t>
+  </si>
+  <si>
+    <t>Zuzoo</t>
+  </si>
+  <si>
+    <t>Aeriq</t>
+  </si>
+  <si>
+    <t>Hello aeriq, here you go :b honestly im so glad we got closer this sem!! 
+Thanks for being such a cool housecapt &amp; friend hihi #teammosquito</t>
+  </si>
+  <si>
+    <t>shahir</t>
+  </si>
+  <si>
+    <t>Aeriq Aqmal</t>
+  </si>
+  <si>
+    <t>You did it!</t>
+  </si>
+  <si>
+    <t>Wirdani Marsya</t>
+  </si>
+  <si>
+    <t>Hi , lmao idk what to say , goooodluck A2 !✌🏻✨</t>
+  </si>
+  <si>
+    <t>Hanis Alwani</t>
+  </si>
+  <si>
+    <t>Afieq</t>
+  </si>
+  <si>
+    <t>TO MORE GREAT ADVENTURES TOGETHER!!!! ❤️🧡💛💚💙💜
+- mela</t>
+  </si>
+  <si>
+    <t>Iqbal</t>
+  </si>
+  <si>
+    <t>Afieq Mizwan</t>
+  </si>
+  <si>
+    <t>Zimzalabim!! We've become closer over the year and I truly appreciate our friendship, from tea spilling to presenting tok together to make sure we pass this damn diploma and fly abroad! (oh and also thank you for pulling me gradually into kpop im loving it)</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>😀😃😄😁😆😅😂🤣😭😗😙😚😘☺️😊😍🥰🤩🤗🙂🙃😉😋😛😝😜🤪🤔🤨🧐🙄😏😒😣😔😌☹️🙁😕😟🥺😬🤐🤫🤭😰😨😧😦😮😯😲😳🤯</t>
+  </si>
+  <si>
+    <t>Afif</t>
+  </si>
+  <si>
+    <t>Baek pip.cayunk kau</t>
+  </si>
+  <si>
+    <t>afifah pips</t>
+  </si>
+  <si>
+    <t>Hi pips!!!! Semoga awak sentiasa kelakar selalu hshshshs study hard and smart okieee &lt;3 hope to bump into each other in UK aaminn :)) take care pipoh!! Enjoy your cookies :p</t>
+  </si>
+  <si>
+    <t>Afiqah</t>
+  </si>
+  <si>
+    <t>hehehehe also wouldnt wish for a better roommate hhehehe ngee 😬</t>
+  </si>
+  <si>
+    <t>Irsalina Akma</t>
+  </si>
+  <si>
+    <t>Afiqah Amira</t>
+  </si>
+  <si>
+    <t>Thank you for being a friend who is always there and guided me every time I did wrong. Kamu idola ❤️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Azreena </t>
+  </si>
+  <si>
+    <t>nahh enjoy the cookie ♥️</t>
+  </si>
+  <si>
+    <t>Afiqah Khayrin</t>
+  </si>
+  <si>
+    <t>Mari ber'IRP'! 🥳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuzoo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi afiqah! Thanks for being the sweetest and nicest (ex)roomie ive ever had ❤️ You are beautiful in and out and I appreciate you! Miss you bb hehe </t>
+  </si>
+  <si>
+    <t>Amni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afiqah Khayrin </t>
+  </si>
+  <si>
+    <t>Congrats for your AS 👏
+            and
+Have a good day 🙂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dina cute!! </t>
+  </si>
+  <si>
+    <t>afiqah khayrin &lt;3</t>
+  </si>
+  <si>
+    <t>heyyyyooo afiqah ehehehehe i hope you are feeling great today &lt;3 less than a year till we graduate (yea i hope i can make it) thank you for everything afiqah (my classmate, zoo-mate, my irp-mate &amp;&amp; my girlfriend) 
+wuv u!!!! take care xx</t>
+  </si>
+  <si>
+    <t>ena</t>
+  </si>
+  <si>
+    <t>Afiqah ucuk</t>
+  </si>
+  <si>
+    <t>tak pernah cakap ni tapi do know that kita sayang afiqah ketat ketat ❤️ Lets dapat 45 points for final IB!!!! Jomla pergi monash sama sama  :))))</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Afza</t>
+  </si>
+  <si>
+    <t>Merry Christmas Afza! Stay as cheerful as you are and always make others happy oraitt!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilham </t>
+  </si>
+  <si>
+    <t>point three kepu kepak</t>
+  </si>
+  <si>
+    <t>afza</t>
+  </si>
+  <si>
+    <t>hello woi afza weyyyyyy last year i lupa nak exchange cookie ngan you end up you bagi i sorang je ahahaha sorry so this is the hutang la kononnya goodluck A2 wheeee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afza </t>
+  </si>
+  <si>
+    <t>hello afza i hope life treats you good i love u u deserve all the best things in the world. jangan sendu dah yee hihi to moreeee adventure in the future xx &lt;3</t>
+  </si>
+  <si>
+    <t>Lukman imran</t>
+  </si>
+  <si>
+    <t>Ahmad daniel</t>
+  </si>
+  <si>
+    <t>May success in your life and get married with someone you love :p</t>
+  </si>
+  <si>
+    <t>Liyana Maisarah</t>
+  </si>
+  <si>
+    <t>Ahmad Imran Hafidz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helloo imran nah cookie. Saja je nak bagi sebab kau kan lapar 24/7 :P
+Haha jkjk btw you’ve been such a terrific friend and i wish you the best of luck in your future endeavours!! :&gt; </t>
+  </si>
+  <si>
+    <t>Aida</t>
+  </si>
+  <si>
+    <t>Nah cookie!!! Jgn sendu-sendu dah
+- wewi 💙💙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reeza Humairah Binti Redzuan </t>
+  </si>
+  <si>
+    <t>Aida Hazira</t>
+  </si>
+  <si>
+    <t>Sayang Aidaaaa 🥰😙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinaaaaaa </t>
+  </si>
+  <si>
+    <t>Aidil N &lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi aidil, my one and only roomie!! I hope you’re smiling rn hehehehe. I just wanna say all the best for your future, I believe you will do great!  Take care :) &lt;33 </t>
+  </si>
+  <si>
+    <t>Adam Nigel bin Mohd Souffie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're still the best thing that ever happened to me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hana Ameena Binti Mohamad Roji </t>
+  </si>
+  <si>
+    <t>19. 4</t>
+  </si>
+  <si>
+    <t>Aiman</t>
+  </si>
+  <si>
+    <t>Tak nak cakap apa apa. Malas. -_-</t>
+  </si>
+  <si>
+    <t>Aiman aliff</t>
+  </si>
+  <si>
+    <t>Utm 2.1</t>
+  </si>
+  <si>
+    <t>Stay strong! Be the best version of yourself and spreas lovess to other! Be kind and never give up cause i love you</t>
+  </si>
+  <si>
+    <t>Aiman kamal</t>
+  </si>
+  <si>
+    <t>Love yourself. You are not alone.</t>
+  </si>
+  <si>
+    <t>Ilham azizuddin</t>
+  </si>
+  <si>
+    <t>Aiman Yazid</t>
+  </si>
+  <si>
+    <t>Hai Yazid!! Haha u know what, I really love to be your friend.. U r so inspiring to me, kind n hv great personality.. Keep up all the spirit and passion.. Dont ever give up!! Dont ever be uncertain.. Just go on, pursue ur dreams.. U can do it! I always know u can.. I Always support u 4eva.. 😊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wan muhammad afif </t>
+  </si>
+  <si>
+    <t>aiman zack</t>
+  </si>
+  <si>
+    <t>tak sangka dulu selalu nampak dekat twitter je, now we in da same class !! thanks for being such a great friend zack, selalu menghiburkan, selalu habiskan makanan, selalu bagi main perut, will always appreciate and pray for u, lets kick a2 huh</t>
+  </si>
+  <si>
+    <t>Ainatul</t>
+  </si>
+  <si>
+    <t>Ainaa Topia</t>
+  </si>
+  <si>
+    <t>To my beloved sister named topia. Congrats on graduating with an IB diploma in your handsss. Will definitely miss your unimaginable annoyingness for i dont know how long. Belajar elok-elok and dont forget your little sister while you're there. Muah muah</t>
+  </si>
+  <si>
+    <t>Omimi</t>
+  </si>
+  <si>
+    <t>Ainatul  "the one and only lah"</t>
+  </si>
+  <si>
+    <t>You are so Perfect. 
+😲
+I wanna be you when I grow up haha
+&gt;Mindblown emoji&lt;</t>
+  </si>
+  <si>
+    <t>Ilham Nasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainatul sebab dia request </t>
+  </si>
+  <si>
+    <t>14.1 kot entah tak ingat</t>
+  </si>
+  <si>
+    <t>Weh ainatul. You such an idol doh like legit idol teroxxx first time jumpa dah feels your aura as a future leader. We had a great talk once upon a time and I got a lot from you. Your sense of leadership is the upmost quality that I look up to you the most doh. The way you handle..(exceed word limit)</t>
+  </si>
+  <si>
+    <t>Shina</t>
+  </si>
+  <si>
+    <t>Aisyah</t>
+  </si>
+  <si>
+    <t>Thank you for being such a nice roomie and good at handling me and my annoyingness love ya 💖</t>
+  </si>
+  <si>
+    <t>Alya syazana</t>
+  </si>
+  <si>
+    <t>Aisyah aqilah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi aisyah! Thank you sebab selalu terhibur dengan lawak i :”)) tapi i memang kelakar pun okay bye luv u! &lt;3 </t>
+  </si>
+  <si>
+    <t>Muhammad Haziq Anonymous</t>
+  </si>
+  <si>
+    <t>Aisyah Bahrin</t>
+  </si>
+  <si>
+    <t>Have a good day! :)</t>
+  </si>
+  <si>
+    <t>kakak dina cute!!!</t>
+  </si>
+  <si>
+    <t>19.1 kewl</t>
+  </si>
+  <si>
+    <t>aisyah bahrin &lt;3</t>
+  </si>
+  <si>
+    <t>19.1 extra kewl</t>
+  </si>
+  <si>
+    <t>hi aisyah!!! Deendeen di sini &lt;33 kita harap awak okay je rn eheheheh thank you sebab suka jalan pegang tangan kita!! Take care okieieieie less than a year je lagi :))) may Allah ease everything &lt;33</t>
+  </si>
+  <si>
+    <t>aisyah BTS</t>
+  </si>
+  <si>
+    <t>hi puan!!! dinding di sini hm. Saya rindu awak seperti awak merindui saya!!! I hope you are okay without me in 318 :&lt; i miss u huhu. Aisyah nak fly dah yayayayayay!!! Sem 3 ni focus ok &lt;33 take care aisyahyangyou muah xoxo</t>
+  </si>
+  <si>
+    <t>Aisyah Norazmi</t>
+  </si>
+  <si>
+    <t>HEy YOUUUU guess who? ITS ME! your classmate. I have been chosen by the gods to become your secret santa. And here's the cookie. Love having you in around with your quirky and lovable personality. See ya around in class :D</t>
+  </si>
+  <si>
+    <t>teefa</t>
+  </si>
+  <si>
+    <t>Ajmir</t>
+  </si>
+  <si>
+    <t>dua tiga kucing berlari, jom kahwin</t>
+  </si>
+  <si>
+    <t>Ikhmal Haiqal</t>
+  </si>
+  <si>
+    <t>UTM 2.6</t>
+  </si>
+  <si>
+    <t>Al-Fadhil Ustaz Syazwan</t>
+  </si>
+  <si>
+    <t>Ke balakang sikit, Syazwan.
+ Setelah lama kita bersahabat, baru aku tau, kau gay. Oleh itu, aku beri cookie ini sebagai pemberi semangat untuk kau supaya kau tak sedih time kene reject.
+Ikhlas, ikhmal.</t>
+  </si>
+  <si>
+    <t>Fisha</t>
+  </si>
+  <si>
+    <t>Alani</t>
+  </si>
+  <si>
+    <t>ALANIII!!! Thank you for being such a cool friend and my concert partner!! To more concerts to go! Don’t be stressed out always!!</t>
+  </si>
+  <si>
+    <t>Alia Nabila</t>
+  </si>
+  <si>
+    <t>hello my closest friend since forever!! Been friends with you since orientation year 1 and i don't regret approaching you about your cute drawings dlm buku ASMA. lol but tu yang paling tak boleh dilupakan. I just wanted to say, change the negativity into something better</t>
+  </si>
+  <si>
+    <t>14.#</t>
+  </si>
+  <si>
+    <t>Takmo nangis nangis, jangan sedih sedih. Its okay jadi garang sikit dekat orang. If you ever need help or someone to listen to you, bilik aku dekat sebelah ja ❤️</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Alia Senpai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a small crush on you but i cant say it to you directly since i know you already have someone. Just wanted to let you know. Kk bye, keep being cool. </t>
+  </si>
+  <si>
+    <t>Fishaaaaa</t>
+  </si>
+  <si>
+    <t>Thank you Alia sebab selalu layan aku and for cheering everyone’s mood up!! Jangan sedih sedih okay Alia, kalau kau sedih just let me know tau!! Stay bright and happy!! I love you baby sayang😘</t>
+  </si>
+  <si>
+    <t>Muhammad Alif Ashraf</t>
+  </si>
+  <si>
+    <t>untuk kawan saya yang paling cantik, paling kelakar dan paling pandai.. terima kasih sebab jadi kawan saya yang paling cantik, paling kelakar dan paling pandai</t>
+  </si>
+  <si>
+    <t>Alief Azman</t>
+  </si>
+  <si>
+    <t>To more padkrapow together ~</t>
+  </si>
+  <si>
+    <t>Zharfan Alimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TINGG*GUESSWHO lmao ALIEF THANKS DOHHFOR ALL THE THINGS YOU DID TO ME for the past SEMESTER 2 , IT WAS A REALLY MENINGFUL SEM to meIM SO GLAD WE ARE SO CLOSE BABI COMPARED TO BEFORE this, THANKS FOR ALL THE TIME WE SPENT ,THE WORKOUT SESSION aka WA  , FOR ALL THE TREATS , ALL THE LAME JOKES , 😂 
+</t>
+  </si>
+  <si>
+    <t>Alief Chaz</t>
+  </si>
+  <si>
+    <t>ilysm, bro.</t>
+  </si>
+  <si>
+    <t>Alif Ashraf</t>
+  </si>
+  <si>
+    <t>untuk kawan yang paling handsome, paling kelakar dan paling pandai : terima kasih sebab jadi kawan yang paling handsome, paling kelakar dan paling pandai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Alif Ashraf </t>
+  </si>
+  <si>
+    <t>Aliff Rahimee</t>
+  </si>
+  <si>
+    <t>YOU ARE THE GREAT ROOMMATE BITCH</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>Have you ever read Shakespeare's Sonnet 18? It doesn't hold a candle to you. You will not know who I am because I'm pretty sure you would prefer it that way. Hope you have a nice day and keep smiling! Because it really lights up a room, it's beautiful. alim tahi</t>
+  </si>
+  <si>
+    <t>Amirah</t>
+  </si>
+  <si>
+    <t>Almas Sofiya</t>
+  </si>
+  <si>
+    <t>Nct dream - best friend
+Thank you for making my ib life better hehe ❤</t>
+  </si>
+  <si>
+    <t>Alya Syazana</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Henlo mangga muda. Thank you for always there in my lowest and for always helping me whenever I need it. Sayang kamu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;3</t>
+    </r>
+  </si>
+  <si>
+    <t>Ayra Khan</t>
+  </si>
+  <si>
+    <t>I just feel like you deserve this cookie bc you've been such a great friend! :) Thank you for being the nicestttt to me, you deserve all the happiness in the world LEGIT! wuv u &lt;333</t>
+  </si>
+  <si>
+    <t>Aisyah Aqilahb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alya Syazana </t>
+  </si>
+  <si>
+    <t>HI ALYA hiks.im so happy and grateful that i got u as a roommate. and i am thankful for u bc u always listen to my rants, never splitting ur attention for anything else if i do. i love ur humour boleh pecah perut weh gelak. im rooting for you and i cant wait to see u successful. ilysm, &lt;3</t>
+  </si>
+  <si>
+    <t>Alya syazana ucuk</t>
+  </si>
+  <si>
+    <t>I wuv youuuu ❤️ Dah lama saya perhatikan awak hihi (geli gila) stay cute hihi harap kita dapat 45 points sama sama 😘</t>
+  </si>
+  <si>
+    <t>Alyasyaz</t>
+  </si>
+  <si>
+    <t>Love you sis 😭 cant live w/o youuu! We can go through sem 3 with ease together okay!! 💛💛</t>
+  </si>
+  <si>
+    <t>Thank you for being a good honest friend. I didn't expect to make such amazing friends here. You showed me there are people who care about me in this world. I'm sorry for my shortcomings and for being a downright asshole, to you and others. I hope this friendship lasts no matter where we go.</t>
+  </si>
+  <si>
+    <t>Thanks for being my support system and thanks for being my friend. Appreciate you boi, would never trade you even for the world (jk i would idk we’ll see)</t>
+  </si>
+  <si>
+    <t>Iman Erysha</t>
+  </si>
+  <si>
+    <t>IB 14.3</t>
+  </si>
+  <si>
+    <t>IB 14.1</t>
+  </si>
+  <si>
+    <t>Thank you for being such a nice and wonderful workmate! May All the success belongs to you :) 🐢</t>
+  </si>
+  <si>
+    <t>Anis Sufiya binti Shahridan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amir Ashraf </t>
+  </si>
+  <si>
+    <t>may you achieve flying colours in ib &amp; become a successful doctor one day! xx</t>
+  </si>
+  <si>
+    <t>Amir Ashraf MErcap</t>
+  </si>
+  <si>
+    <t>HEY MERCAP!! im glad that we are MANY STEPS CLOSER THAN WE USED TO BE, COMPARED TO PREV SEM,tbh im SORRY IF I EVER LET YOU DOWN, in any ways, im sorry if ive ever been a bad friend to you okay!PERGI PC AJAK ak(Hahah oh act Im sorry tu sbb we tak banyak gambar seshen sekli so jom action week nanti !)</t>
+  </si>
+  <si>
+    <t>Amir Hamzah</t>
+  </si>
+  <si>
+    <t>tbh, this is nothing compared to semua pertolongan hg selama ni shshshhs but I hope this cookie makes you happy!! I am very very very grateful to have you in my life!  :D</t>
+  </si>
+  <si>
+    <t>Firdaus Aziz</t>
+  </si>
+  <si>
+    <t>Amir Hazim</t>
+  </si>
+  <si>
+    <t>Congrats 15 anjirz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukman imran </t>
+  </si>
+  <si>
+    <t>Amir hazim</t>
+  </si>
+  <si>
+    <t>Stay smart, handsome.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +962,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,8 +1027,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,11 +1350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B6641-9266-4090-85EA-70FDCC6C5FB2}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B6641-9266-4090-85EA-70FDCC6C5FB2}">
+  <dimension ref="A1:E637"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,76 +1384,5402 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
         <v>19.3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1">
         <v>14.2</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>19.8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
         <v>14.3</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>17.2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="B79" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="1">
         <v>14.4</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E85" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B87" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>17.2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="D91" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="1">
         <v>14.4</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="6"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="6"/>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
+      <c r="C419" s="8"/>
+      <c r="D419" s="8"/>
+      <c r="E419" s="8"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="1"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="1"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+      <c r="E428" s="1"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="7"/>
+      <c r="B432" s="7"/>
+      <c r="C432" s="7"/>
+      <c r="D432" s="7"/>
+      <c r="E432" s="7"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="1"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="E436" s="1"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="1"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="1"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="1"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="1"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="E448" s="1"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="2"/>
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
+      <c r="E450" s="1"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="1"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+      <c r="E453" s="1"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
+      <c r="E454" s="1"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="E455" s="1"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+      <c r="E456" s="1"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+      <c r="E457" s="1"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+      <c r="E458" s="1"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+      <c r="E459" s="1"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+      <c r="E460" s="1"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="2"/>
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="E462" s="1"/>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="2"/>
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+      <c r="D466" s="1"/>
+      <c r="E466" s="1"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+      <c r="D467" s="1"/>
+      <c r="E467" s="1"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
+      <c r="E468" s="1"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+      <c r="E469" s="1"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="E471" s="1"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+      <c r="E472" s="1"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="E473" s="1"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="1"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="1"/>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="2"/>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
+      <c r="E478" s="1"/>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479" s="1"/>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="1"/>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+      <c r="D481" s="1"/>
+      <c r="E481" s="1"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="1"/>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+      <c r="E483" s="2"/>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="1"/>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="1"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
+      <c r="E487" s="1"/>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+      <c r="E488" s="1"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+      <c r="E489" s="1"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
+      <c r="E490" s="1"/>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
+      <c r="E491" s="1"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
+      <c r="E492" s="1"/>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1"/>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
+      <c r="E494" s="1"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="2"/>
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+      <c r="D496" s="1"/>
+      <c r="E496" s="1"/>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+      <c r="E497" s="1"/>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+      <c r="E498" s="1"/>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+      <c r="D499" s="1"/>
+      <c r="E499" s="1"/>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
+      <c r="E500" s="1"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" s="2"/>
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="2"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+      <c r="D502" s="1"/>
+      <c r="E502" s="1"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="1"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
+      <c r="E504" s="1"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+      <c r="E505" s="1"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="2"/>
+      <c r="B506" s="2"/>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="1"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
+      <c r="E508" s="1"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" s="6"/>
+      <c r="B509" s="6"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+      <c r="E509" s="2"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
+      <c r="E510" s="1"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+      <c r="D511" s="1"/>
+      <c r="E511" s="1"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
+      <c r="E513" s="1"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+      <c r="E514" s="1"/>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+      <c r="D515" s="1"/>
+      <c r="E515" s="1"/>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+      <c r="D516" s="1"/>
+      <c r="E516" s="1"/>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+      <c r="E517" s="2"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
+      <c r="E518" s="1"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+      <c r="D519" s="1"/>
+      <c r="E519" s="1"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
+      <c r="E520" s="1"/>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+      <c r="D521" s="1"/>
+      <c r="E521" s="1"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+      <c r="D522" s="1"/>
+      <c r="E522" s="1"/>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+      <c r="D523" s="1"/>
+      <c r="E523" s="1"/>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
+      <c r="E524" s="1"/>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
+      <c r="E525" s="1"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+      <c r="D526" s="1"/>
+      <c r="E526" s="1"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
+      <c r="E527" s="1"/>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
+      <c r="C528" s="2"/>
+      <c r="D528" s="2"/>
+      <c r="E528" s="2"/>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+      <c r="D529" s="1"/>
+      <c r="E529" s="1"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+      <c r="D530" s="1"/>
+      <c r="E530" s="1"/>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+      <c r="D531" s="1"/>
+      <c r="E531" s="1"/>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+      <c r="E532" s="1"/>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+      <c r="D533" s="1"/>
+      <c r="E533" s="1"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+      <c r="D534" s="1"/>
+      <c r="E534" s="1"/>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+      <c r="D535" s="1"/>
+      <c r="E535" s="1"/>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+      <c r="D536" s="1"/>
+      <c r="E536" s="1"/>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+      <c r="D537" s="1"/>
+      <c r="E537" s="1"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+      <c r="D538" s="1"/>
+      <c r="E538" s="1"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+      <c r="D539" s="1"/>
+      <c r="E539" s="1"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+      <c r="D540" s="1"/>
+      <c r="E540" s="1"/>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+      <c r="D541" s="1"/>
+      <c r="E541" s="1"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
+      <c r="E542" s="1"/>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" s="2"/>
+      <c r="B543" s="2"/>
+      <c r="C543" s="2"/>
+      <c r="D543" s="2"/>
+      <c r="E543" s="2"/>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+      <c r="D544" s="1"/>
+      <c r="E544" s="1"/>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
+      <c r="E545" s="1"/>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+      <c r="D546" s="1"/>
+      <c r="E546" s="1"/>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" s="1"/>
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
+      <c r="D547" s="1"/>
+      <c r="E547" s="1"/>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+      <c r="D548" s="1"/>
+      <c r="E548" s="1"/>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+      <c r="D549" s="1"/>
+      <c r="E549" s="1"/>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+      <c r="D550" s="1"/>
+      <c r="E550" s="1"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+      <c r="D551" s="1"/>
+      <c r="E551" s="1"/>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+      <c r="D552" s="1"/>
+      <c r="E552" s="1"/>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+      <c r="D553" s="1"/>
+      <c r="E553" s="1"/>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
+      <c r="D554" s="1"/>
+      <c r="E554" s="1"/>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+      <c r="D555" s="1"/>
+      <c r="E555" s="1"/>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+      <c r="D556" s="1"/>
+      <c r="E556" s="1"/>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
+      <c r="E557" s="1"/>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+      <c r="D558" s="1"/>
+      <c r="E558" s="1"/>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+      <c r="D559" s="1"/>
+      <c r="E559" s="1"/>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
+      <c r="D560" s="1"/>
+      <c r="E560" s="1"/>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+      <c r="D561" s="1"/>
+      <c r="E561" s="1"/>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+      <c r="D562" s="1"/>
+      <c r="E562" s="1"/>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
+      <c r="E563" s="1"/>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+      <c r="D564" s="1"/>
+      <c r="E564" s="1"/>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+      <c r="D565" s="1"/>
+      <c r="E565" s="1"/>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+      <c r="D566" s="1"/>
+      <c r="E566" s="1"/>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+      <c r="D567" s="1"/>
+      <c r="E567" s="1"/>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+      <c r="D568" s="1"/>
+      <c r="E568" s="1"/>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+      <c r="D569" s="1"/>
+      <c r="E569" s="1"/>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+      <c r="D570" s="1"/>
+      <c r="E570" s="1"/>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
+      <c r="D571" s="1"/>
+      <c r="E571" s="1"/>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+      <c r="D572" s="1"/>
+      <c r="E572" s="1"/>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" s="1"/>
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
+      <c r="D573" s="1"/>
+      <c r="E573" s="1"/>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+      <c r="D574" s="1"/>
+      <c r="E574" s="1"/>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+      <c r="D575" s="1"/>
+      <c r="E575" s="1"/>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" s="2"/>
+      <c r="B576" s="2"/>
+      <c r="C576" s="2"/>
+      <c r="D576" s="2"/>
+      <c r="E576" s="2"/>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+      <c r="D577" s="1"/>
+      <c r="E577" s="1"/>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" s="2"/>
+      <c r="B578" s="2"/>
+      <c r="C578" s="2"/>
+      <c r="D578" s="2"/>
+      <c r="E578" s="2"/>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" s="1"/>
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
+      <c r="D579" s="1"/>
+      <c r="E579" s="1"/>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+      <c r="D580" s="1"/>
+      <c r="E580" s="1"/>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" s="2"/>
+      <c r="B581" s="2"/>
+      <c r="C581" s="2"/>
+      <c r="D581" s="2"/>
+      <c r="E581" s="2"/>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" s="2"/>
+      <c r="B582" s="2"/>
+      <c r="C582" s="2"/>
+      <c r="D582" s="2"/>
+      <c r="E582" s="2"/>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
+      <c r="D583" s="1"/>
+      <c r="E583" s="1"/>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" s="2"/>
+      <c r="B584" s="2"/>
+      <c r="C584" s="2"/>
+      <c r="D584" s="2"/>
+      <c r="E584" s="2"/>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
+      <c r="D585" s="1"/>
+      <c r="E585" s="1"/>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" s="2"/>
+      <c r="B586" s="2"/>
+      <c r="C586" s="2"/>
+      <c r="D586" s="2"/>
+      <c r="E586" s="2"/>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" s="1"/>
+      <c r="B587" s="5"/>
+      <c r="C587" s="1"/>
+      <c r="D587" s="1"/>
+      <c r="E587" s="1"/>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+      <c r="D588" s="1"/>
+      <c r="E588" s="1"/>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+      <c r="D589" s="1"/>
+      <c r="E589" s="1"/>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" s="2"/>
+      <c r="B590" s="2"/>
+      <c r="C590" s="2"/>
+      <c r="D590" s="2"/>
+      <c r="E590" s="2"/>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+      <c r="D591" s="1"/>
+      <c r="E591" s="1"/>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
+      <c r="E592" s="1"/>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+      <c r="D593" s="1"/>
+      <c r="E593" s="1"/>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+      <c r="D594" s="1"/>
+      <c r="E594" s="1"/>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+      <c r="D595" s="1"/>
+      <c r="E595" s="1"/>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
+      <c r="E596" s="1"/>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" s="2"/>
+      <c r="B597" s="2"/>
+      <c r="C597" s="2"/>
+      <c r="D597" s="2"/>
+      <c r="E597" s="2"/>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
+      <c r="E598" s="1"/>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+      <c r="D599" s="1"/>
+      <c r="E599" s="1"/>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
+      <c r="D600" s="1"/>
+      <c r="E600" s="1"/>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
+      <c r="D601" s="1"/>
+      <c r="E601" s="1"/>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" s="2"/>
+      <c r="B602" s="2"/>
+      <c r="C602" s="2"/>
+      <c r="D602" s="2"/>
+      <c r="E602" s="2"/>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" s="1"/>
+      <c r="B603" s="1"/>
+      <c r="C603" s="1"/>
+      <c r="D603" s="1"/>
+      <c r="E603" s="1"/>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+      <c r="C604" s="1"/>
+      <c r="D604" s="1"/>
+      <c r="E604" s="1"/>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
+      <c r="D605" s="1"/>
+      <c r="E605" s="1"/>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
+      <c r="D606" s="1"/>
+      <c r="E606" s="1"/>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" s="1"/>
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
+      <c r="D607" s="1"/>
+      <c r="E607" s="1"/>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" s="1"/>
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
+      <c r="D608" s="1"/>
+      <c r="E608" s="1"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" s="2"/>
+      <c r="B609" s="2"/>
+      <c r="C609" s="2"/>
+      <c r="D609" s="2"/>
+      <c r="E609" s="2"/>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" s="1"/>
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+      <c r="D610" s="1"/>
+      <c r="E610" s="1"/>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" s="2"/>
+      <c r="B611" s="2"/>
+      <c r="C611" s="2"/>
+      <c r="D611" s="2"/>
+      <c r="E611" s="2"/>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" s="1"/>
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
+      <c r="D612" s="1"/>
+      <c r="E612" s="1"/>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" s="2"/>
+      <c r="B613" s="2"/>
+      <c r="C613" s="2"/>
+      <c r="D613" s="2"/>
+      <c r="E613" s="2"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" s="2"/>
+      <c r="B614" s="2"/>
+      <c r="C614" s="2"/>
+      <c r="D614" s="2"/>
+      <c r="E614" s="2"/>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" s="1"/>
+      <c r="B615" s="1"/>
+      <c r="C615" s="1"/>
+      <c r="D615" s="1"/>
+      <c r="E615" s="1"/>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" s="2"/>
+      <c r="B616" s="2"/>
+      <c r="C616" s="2"/>
+      <c r="D616" s="2"/>
+      <c r="E616" s="2"/>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" s="1"/>
+      <c r="B617" s="1"/>
+      <c r="C617" s="1"/>
+      <c r="D617" s="1"/>
+      <c r="E617" s="1"/>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" s="1"/>
+      <c r="B618" s="1"/>
+      <c r="C618" s="1"/>
+      <c r="D618" s="1"/>
+      <c r="E618" s="1"/>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+      <c r="C619" s="1"/>
+      <c r="D619" s="1"/>
+      <c r="E619" s="1"/>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" s="1"/>
+      <c r="B620" s="1"/>
+      <c r="C620" s="1"/>
+      <c r="D620" s="1"/>
+      <c r="E620" s="1"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" s="1"/>
+      <c r="B621" s="1"/>
+      <c r="C621" s="1"/>
+      <c r="D621" s="1"/>
+      <c r="E621" s="1"/>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" s="2"/>
+      <c r="B622" s="2"/>
+      <c r="C622" s="2"/>
+      <c r="D622" s="2"/>
+      <c r="E622" s="2"/>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" s="1"/>
+      <c r="B623" s="1"/>
+      <c r="C623" s="1"/>
+      <c r="D623" s="1"/>
+      <c r="E623" s="1"/>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" s="1"/>
+      <c r="B624" s="1"/>
+      <c r="C624" s="1"/>
+      <c r="D624" s="1"/>
+      <c r="E624" s="1"/>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" s="1"/>
+      <c r="B625" s="1"/>
+      <c r="C625" s="1"/>
+      <c r="D625" s="1"/>
+      <c r="E625" s="1"/>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
+      <c r="C626" s="1"/>
+      <c r="D626" s="1"/>
+      <c r="E626" s="1"/>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" s="1"/>
+      <c r="B627" s="1"/>
+      <c r="C627" s="1"/>
+      <c r="D627" s="1"/>
+      <c r="E627" s="1"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" s="1"/>
+      <c r="B628" s="1"/>
+      <c r="C628" s="1"/>
+      <c r="D628" s="1"/>
+      <c r="E628" s="1"/>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" s="1"/>
+      <c r="B629" s="1"/>
+      <c r="C629" s="1"/>
+      <c r="D629" s="1"/>
+      <c r="E629" s="1"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" s="1"/>
+      <c r="B630" s="1"/>
+      <c r="C630" s="1"/>
+      <c r="D630" s="1"/>
+      <c r="E630" s="1"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" s="1"/>
+      <c r="B631" s="1"/>
+      <c r="C631" s="1"/>
+      <c r="D631" s="1"/>
+      <c r="E631" s="1"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" s="1"/>
+      <c r="B632" s="1"/>
+      <c r="C632" s="1"/>
+      <c r="D632" s="1"/>
+      <c r="E632" s="1"/>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" s="1"/>
+      <c r="B633" s="1"/>
+      <c r="C633" s="1"/>
+      <c r="D633" s="1"/>
+      <c r="E633" s="1"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+      <c r="C634" s="1"/>
+      <c r="D634" s="1"/>
+      <c r="E634" s="1"/>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" s="1"/>
+      <c r="B635" s="1"/>
+      <c r="C635" s="1"/>
+      <c r="D635" s="1"/>
+      <c r="E635" s="1"/>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" s="1"/>
+      <c r="B636" s="1"/>
+      <c r="C636" s="1"/>
+      <c r="D636" s="1"/>
+      <c r="E636" s="1"/>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" s="1"/>
+      <c r="B637" s="1"/>
+      <c r="C637" s="1"/>
+      <c r="D637" s="1"/>
+      <c r="E637" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -561,30 +6801,30 @@
         <v>19.8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <v>14.3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>17.2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>14.4</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/cookie_project.xlsx
+++ b/cookie_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64bdeba47bfa1154/My Workspace/CookieProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{38632396-5548-466A-9845-662C6832EAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10670557-A6F0-4D0D-9EEF-0020D566DCFF}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{38632396-5548-466A-9845-662C6832EAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38DDAC77-ED3A-47CD-90CD-366C2A5DEAC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6762A2A9-ADDF-478D-A249-EFDBCBB567DA}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="30">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -164,736 +164,46 @@
     <t>Peekabo</t>
   </si>
   <si>
-    <t>Apip</t>
-  </si>
-  <si>
-    <t>Ku Hasinah</t>
-  </si>
-  <si>
-    <t>Amir Ashraf</t>
-  </si>
-  <si>
-    <t>Nurarif Nurhashim</t>
-  </si>
-  <si>
-    <t>Aidil Nashazleen</t>
-  </si>
-  <si>
-    <t>Cupi</t>
-  </si>
-  <si>
-    <t>Ida Melati</t>
-  </si>
-  <si>
-    <t>Iylia Jasni</t>
-  </si>
-  <si>
-    <t>Adam Ipan</t>
-  </si>
-  <si>
-    <t>hey irfan, i dont know how to say this but i kinda have a crush on you. i dont know if u know me but ive always given u hints i think haha. see u around and enjoy da cookie</t>
-  </si>
-  <si>
-    <t>Adam Irfan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study smart and do good to others like you always do ! Hidup Ipang!!!! </t>
-  </si>
-  <si>
-    <t>Adam Nigel</t>
-  </si>
-  <si>
-    <t>you still dont deserve me as a friend if u dont get me one ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you for being such a good honest friend to me. You're the one person I know I can trust. I'm sorry for my shortcomings and for being a downright asshole sometimes, to you and others. I genuinely hope this friendship lasts no matter what. </t>
-  </si>
-  <si>
-    <t>Te quiero mucho &lt;3</t>
-  </si>
-  <si>
-    <t>Adam Zambri (chong)</t>
-  </si>
-  <si>
-    <t>I love you boiz, gang gang till the end wuv cups</t>
-  </si>
-  <si>
-    <t>Adam Zu</t>
-  </si>
-  <si>
-    <t>Helloo DamZu! HAHA Good luck on your 10 crushes :p hopefully one of them comes thru and you leave the single and depressi gang gang ✊🏻 #tiktokators</t>
-  </si>
-  <si>
-    <t>Adam Zuraini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helloOo thx for being a goood friend and listener :) and ermm singles&gt;doubles kk bye ttyl </t>
-  </si>
-  <si>
-    <t>Raziq</t>
-  </si>
-  <si>
-    <t>Damzu!!! u cool and chill but you’ll be cooler and chiller with this cookie. Buat more tiktoks pls</t>
-  </si>
-  <si>
-    <t>Chong</t>
-  </si>
-  <si>
-    <t>AdamZu</t>
-  </si>
-  <si>
-    <t>I may not show it often but love you do Dam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqilah Dayana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adek </t>
-  </si>
-  <si>
-    <t>Hi adeks hiks this is your concert buds!!! Thank you for our times during kasukma and tbh i had so much fun on that weekend &lt;3 Love you adek, i cherish our friendship 4ever!</t>
-  </si>
-  <si>
-    <t>Diyana</t>
-  </si>
-  <si>
-    <t>Adek !!!!!</t>
-  </si>
-  <si>
-    <t>obviously not the dumbest among cliquez love u adek ;p to many more days weeks months of sitting next to each other in class (without us actually realising bcs opposite attracts 🤪🤘🏻)</t>
-  </si>
-  <si>
-    <t>mishajeprs</t>
-  </si>
-  <si>
-    <t>adekkk</t>
-  </si>
-  <si>
-    <t>Adek!!! Stay strong and never underestimate yourself! I’m sure you’ll figure it out w.... AMARE please dont stop making iced coffee for me HEHEHE bcs YOU’RE MY FAV BARUSTA LOVE YOU LOTS  XOXO</t>
-  </si>
-  <si>
-    <t>AIDA HAZIRAH</t>
-  </si>
-  <si>
-    <t>Adibah</t>
-  </si>
-  <si>
-    <t>Know that you're a rainbow in someone's cloud :) anyways enjoy the cookie &lt;3</t>
-  </si>
-  <si>
-    <t>Hani</t>
-  </si>
-  <si>
-    <t>Hey ummi!! Thanks for all the love you pour to all of ur daughters and sons. Ly</t>
-  </si>
-  <si>
-    <t>Hanis Khairina</t>
-  </si>
-  <si>
-    <t>Nah, sbb kau bagi aku kan tahun lepas huhu</t>
-  </si>
-  <si>
-    <t>Qis</t>
-  </si>
-  <si>
-    <t>Adlan</t>
-  </si>
-  <si>
-    <t>Hello RIP mate! Thankful to have you as one, Good luck for your future buddy! &lt;3</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Mengada nak drop hints. Thank you RIP mate! so grateful to have you as one. Good luck for your future buddy!</t>
-  </si>
-  <si>
-    <t>Meor Adlan Putra Meor Hisham</t>
-  </si>
-  <si>
-    <t>Adli Irfan</t>
-  </si>
-  <si>
-    <t>Hello Adliii! We’ve been through a lot together do like A LOT. Good or bad, aku akan cherish all the moments with you sampai bila bila and will never forget you bro. I reaaaally appreciate your presence in my life and thank you for everything adlyyy. Hope you like the cookie!</t>
-  </si>
-  <si>
-    <t>Alia Yasmeen</t>
-  </si>
-  <si>
-    <t>Adlinanananana</t>
-  </si>
-  <si>
-    <t>love you baby ♥</t>
-  </si>
-  <si>
-    <t>dina cute!!</t>
-  </si>
-  <si>
-    <t>adlinananananana</t>
-  </si>
-  <si>
     <t>19.wan nuradlina</t>
-  </si>
-  <si>
-    <t>hey adlina!!!! I hope you are feeling great today &lt;3 tbh you are one of the strongest &amp; happy-go-lucky  person I met in my life, keep it going girl!! I hope Allah will protect you wherever you go. Take care ad :)))</t>
-  </si>
-  <si>
-    <t>imanzle</t>
-  </si>
-  <si>
-    <t>Adri Shu</t>
-  </si>
-  <si>
-    <t>thank you for having my back since day one. I love you sissy &lt;3</t>
-  </si>
-  <si>
-    <t>Adriana Shamisa</t>
-  </si>
-  <si>
-    <t>I cant believe you persuaded me into doing this. Anyways, stay in school. Dont do drugs. Always take consent. Play safe, use protection. Stand up for women. Jangan rempit</t>
-  </si>
-  <si>
-    <t>Your beloved usrah sisturss</t>
   </si>
   <si>
     <t>Year 1</t>
   </si>
   <si>
-    <t>Assalamulaikum  hiii! 👋🏻 wishing you all the best throughout your studiesss and may Allah ease ❤ enjoy your journey here in kms, let's be happy together 😄</t>
-  </si>
-  <si>
-    <t>Farihah</t>
-  </si>
-  <si>
     <t>UTM2. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana shamisa </t>
   </si>
   <si>
     <t>UTM2.1</t>
   </si>
   <si>
-    <t>Takyah nak teka2 sngt, ni farihah😂.X byk mau ckp, just thank you for being my friend. Kawan yg baik, boleh dprcayai. Sumpah baek. Smpai bila2 akuakn igt ayt kau "sekarang aku la jadi kwn kau" first day msa aku msuk kms. Aku x tau sejauh mna this friendship will go tpi apa2 punjaga diri d luar sna❤️</t>
-  </si>
-  <si>
-    <t>Adriana Shu</t>
-  </si>
-  <si>
-    <t>A good heart and pretty girl deserve a cookie. Goodluck sem 3 girl ❤️ Love you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hareihtasin </t>
-  </si>
-  <si>
-    <t>Adriana Shuhuda</t>
-  </si>
-  <si>
-    <t>This cookie is from me not him. Enjoy</t>
-  </si>
-  <si>
-    <t>Zuzoo</t>
-  </si>
-  <si>
-    <t>Aeriq</t>
-  </si>
-  <si>
-    <t>Hello aeriq, here you go :b honestly im so glad we got closer this sem!! 
-Thanks for being such a cool housecapt &amp; friend hihi #teammosquito</t>
-  </si>
-  <si>
-    <t>shahir</t>
-  </si>
-  <si>
-    <t>Aeriq Aqmal</t>
-  </si>
-  <si>
-    <t>You did it!</t>
-  </si>
-  <si>
-    <t>Wirdani Marsya</t>
-  </si>
-  <si>
-    <t>Hi , lmao idk what to say , goooodluck A2 !✌🏻✨</t>
-  </si>
-  <si>
-    <t>Hanis Alwani</t>
-  </si>
-  <si>
-    <t>Afieq</t>
-  </si>
-  <si>
-    <t>TO MORE GREAT ADVENTURES TOGETHER!!!! ❤️🧡💛💚💙💜
-- mela</t>
-  </si>
-  <si>
-    <t>Iqbal</t>
-  </si>
-  <si>
-    <t>Afieq Mizwan</t>
-  </si>
-  <si>
-    <t>Zimzalabim!! We've become closer over the year and I truly appreciate our friendship, from tea spilling to presenting tok together to make sure we pass this damn diploma and fly abroad! (oh and also thank you for pulling me gradually into kpop im loving it)</t>
-  </si>
-  <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
-    <t>😀😃😄😁😆😅😂🤣😭😗😙😚😘☺️😊😍🥰🤩🤗🙂🙃😉😋😛😝😜🤪🤔🤨🧐🙄😏😒😣😔😌☹️🙁😕😟🥺😬🤐🤫🤭😰😨😧😦😮😯😲😳🤯</t>
-  </si>
-  <si>
-    <t>Afif</t>
-  </si>
-  <si>
-    <t>Baek pip.cayunk kau</t>
-  </si>
-  <si>
-    <t>afifah pips</t>
-  </si>
-  <si>
-    <t>Hi pips!!!! Semoga awak sentiasa kelakar selalu hshshshs study hard and smart okieee &lt;3 hope to bump into each other in UK aaminn :)) take care pipoh!! Enjoy your cookies :p</t>
-  </si>
-  <si>
-    <t>Afiqah</t>
-  </si>
-  <si>
-    <t>hehehehe also wouldnt wish for a better roommate hhehehe ngee 😬</t>
-  </si>
-  <si>
-    <t>Irsalina Akma</t>
-  </si>
-  <si>
-    <t>Afiqah Amira</t>
-  </si>
-  <si>
-    <t>Thank you for being a friend who is always there and guided me every time I did wrong. Kamu idola ❤️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur Azreena </t>
-  </si>
-  <si>
-    <t>nahh enjoy the cookie ♥️</t>
-  </si>
-  <si>
-    <t>Afiqah Khayrin</t>
-  </si>
-  <si>
-    <t>Mari ber'IRP'! 🥳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuzoo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi afiqah! Thanks for being the sweetest and nicest (ex)roomie ive ever had ❤️ You are beautiful in and out and I appreciate you! Miss you bb hehe </t>
-  </si>
-  <si>
-    <t>Amni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afiqah Khayrin </t>
-  </si>
-  <si>
-    <t>Congrats for your AS 👏
-            and
-Have a good day 🙂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dina cute!! </t>
-  </si>
-  <si>
-    <t>afiqah khayrin &lt;3</t>
-  </si>
-  <si>
-    <t>heyyyyooo afiqah ehehehehe i hope you are feeling great today &lt;3 less than a year till we graduate (yea i hope i can make it) thank you for everything afiqah (my classmate, zoo-mate, my irp-mate &amp;&amp; my girlfriend) 
-wuv u!!!! take care xx</t>
-  </si>
-  <si>
-    <t>ena</t>
-  </si>
-  <si>
-    <t>Afiqah ucuk</t>
-  </si>
-  <si>
-    <t>tak pernah cakap ni tapi do know that kita sayang afiqah ketat ketat ❤️ Lets dapat 45 points for final IB!!!! Jomla pergi monash sama sama  :))))</t>
-  </si>
-  <si>
-    <t>Rango</t>
-  </si>
-  <si>
-    <t>Afza</t>
-  </si>
-  <si>
-    <t>Merry Christmas Afza! Stay as cheerful as you are and always make others happy oraitt!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilham </t>
-  </si>
-  <si>
     <t>point three kepu kepak</t>
-  </si>
-  <si>
-    <t>afza</t>
-  </si>
-  <si>
-    <t>hello woi afza weyyyyyy last year i lupa nak exchange cookie ngan you end up you bagi i sorang je ahahaha sorry so this is the hutang la kononnya goodluck A2 wheeee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afza </t>
-  </si>
-  <si>
-    <t>hello afza i hope life treats you good i love u u deserve all the best things in the world. jangan sendu dah yee hihi to moreeee adventure in the future xx &lt;3</t>
-  </si>
-  <si>
-    <t>Lukman imran</t>
-  </si>
-  <si>
-    <t>Ahmad daniel</t>
-  </si>
-  <si>
-    <t>May success in your life and get married with someone you love :p</t>
-  </si>
-  <si>
-    <t>Liyana Maisarah</t>
-  </si>
-  <si>
-    <t>Ahmad Imran Hafidz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helloo imran nah cookie. Saja je nak bagi sebab kau kan lapar 24/7 :P
-Haha jkjk btw you’ve been such a terrific friend and i wish you the best of luck in your future endeavours!! :&gt; </t>
-  </si>
-  <si>
-    <t>Aida</t>
-  </si>
-  <si>
-    <t>Nah cookie!!! Jgn sendu-sendu dah
-- wewi 💙💙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reeza Humairah Binti Redzuan </t>
-  </si>
-  <si>
-    <t>Aida Hazira</t>
-  </si>
-  <si>
-    <t>Sayang Aidaaaa 🥰😙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinaaaaaa </t>
-  </si>
-  <si>
-    <t>Aidil N &lt;3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi aidil, my one and only roomie!! I hope you’re smiling rn hehehehe. I just wanna say all the best for your future, I believe you will do great!  Take care :) &lt;33 </t>
-  </si>
-  <si>
-    <t>Adam Nigel bin Mohd Souffie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You're still the best thing that ever happened to me </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hana Ameena Binti Mohamad Roji </t>
   </si>
   <si>
     <t>19. 4</t>
   </si>
   <si>
-    <t>Aiman</t>
-  </si>
-  <si>
-    <t>Tak nak cakap apa apa. Malas. -_-</t>
-  </si>
-  <si>
-    <t>Aiman aliff</t>
-  </si>
-  <si>
     <t>Utm 2.1</t>
-  </si>
-  <si>
-    <t>Stay strong! Be the best version of yourself and spreas lovess to other! Be kind and never give up cause i love you</t>
-  </si>
-  <si>
-    <t>Aiman kamal</t>
-  </si>
-  <si>
-    <t>Love yourself. You are not alone.</t>
-  </si>
-  <si>
-    <t>Ilham azizuddin</t>
-  </si>
-  <si>
-    <t>Aiman Yazid</t>
-  </si>
-  <si>
-    <t>Hai Yazid!! Haha u know what, I really love to be your friend.. U r so inspiring to me, kind n hv great personality.. Keep up all the spirit and passion.. Dont ever give up!! Dont ever be uncertain.. Just go on, pursue ur dreams.. U can do it! I always know u can.. I Always support u 4eva.. 😊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wan muhammad afif </t>
-  </si>
-  <si>
-    <t>aiman zack</t>
-  </si>
-  <si>
-    <t>tak sangka dulu selalu nampak dekat twitter je, now we in da same class !! thanks for being such a great friend zack, selalu menghiburkan, selalu habiskan makanan, selalu bagi main perut, will always appreciate and pray for u, lets kick a2 huh</t>
-  </si>
-  <si>
-    <t>Ainatul</t>
-  </si>
-  <si>
-    <t>Ainaa Topia</t>
-  </si>
-  <si>
-    <t>To my beloved sister named topia. Congrats on graduating with an IB diploma in your handsss. Will definitely miss your unimaginable annoyingness for i dont know how long. Belajar elok-elok and dont forget your little sister while you're there. Muah muah</t>
-  </si>
-  <si>
-    <t>Omimi</t>
-  </si>
-  <si>
-    <t>Ainatul  "the one and only lah"</t>
-  </si>
-  <si>
-    <t>You are so Perfect. 
-😲
-I wanna be you when I grow up haha
-&gt;Mindblown emoji&lt;</t>
-  </si>
-  <si>
-    <t>Ilham Nasir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainatul sebab dia request </t>
   </si>
   <si>
     <t>14.1 kot entah tak ingat</t>
   </si>
   <si>
-    <t>Weh ainatul. You such an idol doh like legit idol teroxxx first time jumpa dah feels your aura as a future leader. We had a great talk once upon a time and I got a lot from you. Your sense of leadership is the upmost quality that I look up to you the most doh. The way you handle..(exceed word limit)</t>
-  </si>
-  <si>
-    <t>Shina</t>
-  </si>
-  <si>
-    <t>Aisyah</t>
-  </si>
-  <si>
-    <t>Thank you for being such a nice roomie and good at handling me and my annoyingness love ya 💖</t>
-  </si>
-  <si>
-    <t>Alya syazana</t>
-  </si>
-  <si>
-    <t>Aisyah aqilah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi aisyah! Thank you sebab selalu terhibur dengan lawak i :”)) tapi i memang kelakar pun okay bye luv u! &lt;3 </t>
-  </si>
-  <si>
-    <t>Muhammad Haziq Anonymous</t>
-  </si>
-  <si>
-    <t>Aisyah Bahrin</t>
-  </si>
-  <si>
-    <t>Have a good day! :)</t>
-  </si>
-  <si>
-    <t>kakak dina cute!!!</t>
-  </si>
-  <si>
     <t>19.1 kewl</t>
-  </si>
-  <si>
-    <t>aisyah bahrin &lt;3</t>
   </si>
   <si>
     <t>19.1 extra kewl</t>
   </si>
   <si>
-    <t>hi aisyah!!! Deendeen di sini &lt;33 kita harap awak okay je rn eheheheh thank you sebab suka jalan pegang tangan kita!! Take care okieieieie less than a year je lagi :))) may Allah ease everything &lt;33</t>
-  </si>
-  <si>
-    <t>aisyah BTS</t>
-  </si>
-  <si>
-    <t>hi puan!!! dinding di sini hm. Saya rindu awak seperti awak merindui saya!!! I hope you are okay without me in 318 :&lt; i miss u huhu. Aisyah nak fly dah yayayayayay!!! Sem 3 ni focus ok &lt;33 take care aisyahyangyou muah xoxo</t>
-  </si>
-  <si>
-    <t>Aisyah Norazmi</t>
-  </si>
-  <si>
-    <t>HEy YOUUUU guess who? ITS ME! your classmate. I have been chosen by the gods to become your secret santa. And here's the cookie. Love having you in around with your quirky and lovable personality. See ya around in class :D</t>
-  </si>
-  <si>
-    <t>teefa</t>
-  </si>
-  <si>
-    <t>Ajmir</t>
-  </si>
-  <si>
-    <t>dua tiga kucing berlari, jom kahwin</t>
-  </si>
-  <si>
-    <t>Ikhmal Haiqal</t>
-  </si>
-  <si>
     <t>UTM 2.6</t>
-  </si>
-  <si>
-    <t>Al-Fadhil Ustaz Syazwan</t>
-  </si>
-  <si>
-    <t>Ke balakang sikit, Syazwan.
- Setelah lama kita bersahabat, baru aku tau, kau gay. Oleh itu, aku beri cookie ini sebagai pemberi semangat untuk kau supaya kau tak sedih time kene reject.
-Ikhlas, ikhmal.</t>
-  </si>
-  <si>
-    <t>Fisha</t>
-  </si>
-  <si>
-    <t>Alani</t>
-  </si>
-  <si>
-    <t>ALANIII!!! Thank you for being such a cool friend and my concert partner!! To more concerts to go! Don’t be stressed out always!!</t>
-  </si>
-  <si>
-    <t>Alia Nabila</t>
-  </si>
-  <si>
-    <t>hello my closest friend since forever!! Been friends with you since orientation year 1 and i don't regret approaching you about your cute drawings dlm buku ASMA. lol but tu yang paling tak boleh dilupakan. I just wanted to say, change the negativity into something better</t>
   </si>
   <si>
     <t>14.#</t>
   </si>
   <si>
-    <t>Takmo nangis nangis, jangan sedih sedih. Its okay jadi garang sikit dekat orang. If you ever need help or someone to listen to you, bilik aku dekat sebelah ja ❤️</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Alia Senpai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have a small crush on you but i cant say it to you directly since i know you already have someone. Just wanted to let you know. Kk bye, keep being cool. </t>
-  </si>
-  <si>
-    <t>Fishaaaaa</t>
-  </si>
-  <si>
-    <t>Thank you Alia sebab selalu layan aku and for cheering everyone’s mood up!! Jangan sedih sedih okay Alia, kalau kau sedih just let me know tau!! Stay bright and happy!! I love you baby sayang😘</t>
-  </si>
-  <si>
-    <t>Muhammad Alif Ashraf</t>
-  </si>
-  <si>
-    <t>untuk kawan saya yang paling cantik, paling kelakar dan paling pandai.. terima kasih sebab jadi kawan saya yang paling cantik, paling kelakar dan paling pandai</t>
-  </si>
-  <si>
-    <t>Alief Azman</t>
-  </si>
-  <si>
-    <t>To more padkrapow together ~</t>
-  </si>
-  <si>
-    <t>Zharfan Alimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*TINGG*GUESSWHO lmao ALIEF THANKS DOHHFOR ALL THE THINGS YOU DID TO ME for the past SEMESTER 2 , IT WAS A REALLY MENINGFUL SEM to meIM SO GLAD WE ARE SO CLOSE BABI COMPARED TO BEFORE this, THANKS FOR ALL THE TIME WE SPENT ,THE WORKOUT SESSION aka WA  , FOR ALL THE TREATS , ALL THE LAME JOKES , 😂 
-</t>
-  </si>
-  <si>
-    <t>Alief Chaz</t>
-  </si>
-  <si>
-    <t>ilysm, bro.</t>
-  </si>
-  <si>
-    <t>Alif Ashraf</t>
-  </si>
-  <si>
-    <t>untuk kawan yang paling handsome, paling kelakar dan paling pandai : terima kasih sebab jadi kawan yang paling handsome, paling kelakar dan paling pandai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Alif Ashraf </t>
-  </si>
-  <si>
-    <t>Aliff Rahimee</t>
-  </si>
-  <si>
-    <t>YOU ARE THE GREAT ROOMMATE BITCH</t>
-  </si>
-  <si>
     <t>~</t>
-  </si>
-  <si>
-    <t>Alim</t>
-  </si>
-  <si>
-    <t>Have you ever read Shakespeare's Sonnet 18? It doesn't hold a candle to you. You will not know who I am because I'm pretty sure you would prefer it that way. Hope you have a nice day and keep smiling! Because it really lights up a room, it's beautiful. alim tahi</t>
-  </si>
-  <si>
-    <t>Amirah</t>
-  </si>
-  <si>
-    <t>Almas Sofiya</t>
-  </si>
-  <si>
-    <t>Nct dream - best friend
-Thank you for making my ib life better hehe ❤</t>
-  </si>
-  <si>
-    <t>Alya Syazana</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Henlo mangga muda. Thank you for always there in my lowest and for always helping me whenever I need it. Sayang kamu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&lt;3</t>
-    </r>
-  </si>
-  <si>
-    <t>Ayra Khan</t>
-  </si>
-  <si>
-    <t>I just feel like you deserve this cookie bc you've been such a great friend! :) Thank you for being the nicestttt to me, you deserve all the happiness in the world LEGIT! wuv u &lt;333</t>
-  </si>
-  <si>
-    <t>Aisyah Aqilahb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alya Syazana </t>
-  </si>
-  <si>
-    <t>HI ALYA hiks.im so happy and grateful that i got u as a roommate. and i am thankful for u bc u always listen to my rants, never splitting ur attention for anything else if i do. i love ur humour boleh pecah perut weh gelak. im rooting for you and i cant wait to see u successful. ilysm, &lt;3</t>
-  </si>
-  <si>
-    <t>Alya syazana ucuk</t>
-  </si>
-  <si>
-    <t>I wuv youuuu ❤️ Dah lama saya perhatikan awak hihi (geli gila) stay cute hihi harap kita dapat 45 points sama sama 😘</t>
-  </si>
-  <si>
-    <t>Alyasyaz</t>
-  </si>
-  <si>
-    <t>Love you sis 😭 cant live w/o youuu! We can go through sem 3 with ease together okay!! 💛💛</t>
-  </si>
-  <si>
-    <t>Thank you for being a good honest friend. I didn't expect to make such amazing friends here. You showed me there are people who care about me in this world. I'm sorry for my shortcomings and for being a downright asshole, to you and others. I hope this friendship lasts no matter where we go.</t>
-  </si>
-  <si>
-    <t>Thanks for being my support system and thanks for being my friend. Appreciate you boi, would never trade you even for the world (jk i would idk we’ll see)</t>
-  </si>
-  <si>
-    <t>Iman Erysha</t>
   </si>
   <si>
     <t>IB 14.3</t>
@@ -902,53 +212,20 @@
     <t>IB 14.1</t>
   </si>
   <si>
-    <t>Thank you for being such a nice and wonderful workmate! May All the success belongs to you :) 🐢</t>
+    <t>Khalid</t>
   </si>
   <si>
-    <t>Anis Sufiya binti Shahridan</t>
+    <t>Anonymous</t>
   </si>
   <si>
-    <t xml:space="preserve">Amir Ashraf </t>
-  </si>
-  <si>
-    <t>may you achieve flying colours in ib &amp; become a successful doctor one day! xx</t>
-  </si>
-  <si>
-    <t>Amir Ashraf MErcap</t>
-  </si>
-  <si>
-    <t>HEY MERCAP!! im glad that we are MANY STEPS CLOSER THAN WE USED TO BE, COMPARED TO PREV SEM,tbh im SORRY IF I EVER LET YOU DOWN, in any ways, im sorry if ive ever been a bad friend to you okay!PERGI PC AJAK ak(Hahah oh act Im sorry tu sbb we tak banyak gambar seshen sekli so jom action week nanti !)</t>
-  </si>
-  <si>
-    <t>Amir Hamzah</t>
-  </si>
-  <si>
-    <t>tbh, this is nothing compared to semua pertolongan hg selama ni shshshhs but I hope this cookie makes you happy!! I am very very very grateful to have you in my life!  :D</t>
-  </si>
-  <si>
-    <t>Firdaus Aziz</t>
-  </si>
-  <si>
-    <t>Amir Hazim</t>
-  </si>
-  <si>
-    <t>Congrats 15 anjirz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukman imran </t>
-  </si>
-  <si>
-    <t>Amir hazim</t>
-  </si>
-  <si>
-    <t>Stay smart, handsome.</t>
+    <t>Hi, My name is Muhammad Khalid Al-Walid bin Hersafril.This is just a simple project I have been wanting to do since I handle my cookie project. This is just some random words because I wanna fill in the quota.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,11 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -1353,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B6641-9266-4090-85EA-70FDCC6C5FB2}">
   <dimension ref="A1:E637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,1627 +657,1639 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>19.5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>19.2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>14.1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>19.2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>14.1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>14.4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>14.1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>14.4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>19.2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>14.4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>19.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>19.3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>19.5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>19.5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>19.5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>14.3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>14.3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>14.3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>14.1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>14.3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>14.1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>14.1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>14.1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>14.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>14.1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>14.1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>19.2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>14.3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
         <v>14.2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>19.5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>2.1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>14.2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>77</v>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>14.1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>14.2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
         <v>14.2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>19.5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>14.4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>14.1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1">
         <v>14.1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>14.1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>14.1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1">
         <v>14.1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>19.2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1">
         <v>19.5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
         <v>14.3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1">
         <v>14.2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1">
         <v>14.2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1">
         <v>14.2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
         <v>14.2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1">
         <v>14.2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1">
         <v>19.5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1">
         <v>14.1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1">
         <v>14.2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1">
         <v>14.2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>127</v>
+      <c r="A46" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B46" s="2">
         <v>19.5</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>128</v>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>19.5</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>129</v>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>130</v>
+      <c r="A47" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>132</v>
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D47" s="3">
         <v>19.5</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>133</v>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1">
         <v>19.5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1">
         <v>19.5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1">
         <v>19.5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1">
         <v>14.2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1">
         <v>18.2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1">
         <v>14.1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1">
         <v>14.1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1">
         <v>14.3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1">
         <v>14.1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1">
         <v>19.2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1">
         <v>14.4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1">
         <v>19.2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>152</v>
+      <c r="A55" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>19.5</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>155</v>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>156</v>
+      <c r="A56" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>156</v>
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>2.1</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>158</v>
+      <c r="E56" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
         <v>14.4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1">
         <v>14.4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1">
         <v>19.5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1">
         <v>19.5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1">
         <v>14.1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1">
         <v>13.2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>167</v>
+      <c r="A61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>167</v>
+      <c r="A62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1">
         <v>14.1</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>171</v>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D63" s="1">
         <v>14.1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>173</v>
+      <c r="A64" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B64" s="2">
         <v>19.3</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
+      <c r="C64" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1">
         <v>14.1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1">
         <v>14.3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1">
         <v>14.2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="D66" s="1">
         <v>14.3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1">
         <v>19.3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B69" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="D69" s="1">
         <v>14.1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1">
         <v>14.1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="D70" s="1">
         <v>14.1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>195</v>
+      <c r="A71" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B71" s="2">
         <v>14.3</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>196</v>
+      <c r="C71" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>13.5</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>197</v>
+      <c r="E71" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1">
         <v>19.2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1">
         <v>19.2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B74" s="1">
         <v>14.1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1">
         <v>14.2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1">
         <v>14.2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1">
         <v>14.2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="B77" s="1">
         <v>19.2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D77" s="1">
         <v>19.2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1">
         <v>19.2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D78" s="1">
         <v>19.2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1">
         <v>14.1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="D79" s="1">
         <v>19.2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="B80" s="1">
         <v>19.3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="D80" s="1">
         <v>19.2</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B81" s="1">
         <v>14.3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="D81" s="1">
         <v>19.2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B82" s="1">
         <v>19.2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="D82" s="1">
         <v>19.2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="B83" s="1">
         <v>19.2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="D83" s="1">
         <v>19.2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="D84" s="1">
         <v>19.2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="B85" s="1">
         <v>14.2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="D85" s="1">
         <v>14.4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1">
         <v>14.2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="D86" s="1">
         <v>14.2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="B87" s="1">
         <v>14.3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="D87" s="1">
         <v>14.2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>237</v>
+      <c r="A88" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B88" s="2">
         <v>14.3</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>238</v>
+      <c r="C88" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>14.2</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>239</v>
+      <c r="E88" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B89" s="1">
         <v>14.2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="D89" s="1">
         <v>14.2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1">
         <v>14.1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1">
         <v>14.2</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1">
         <v>14.1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D91" s="1">
         <v>14.1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1">
         <v>14.4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D92" s="1">
         <v>14.1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="B94" s="1">
         <v>14.1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="D94" s="1">
         <v>14.1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="B95" s="1">
         <v>19.3</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1">
         <v>14.1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B96" s="1">
         <v>19.2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="D96" s="1">
         <v>19.2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>256</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="B97" s="1">
         <v>19.3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="D97" s="1">
         <v>19.3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="B98" s="1">
         <v>19.5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="D98" s="1">
         <v>19.3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
